--- a/QC Test.xlsx
+++ b/QC Test.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\KAYESH\Source\Repos\IbneKayesh\Sieve.HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Sheikh Asad Quadir\ASP.NET CORE\Kayes Vai\HR2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC50582B-EB55-4956-A496-E48BFA3902A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="855" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20610" yWindow="855" windowWidth="20730" windowHeight="11040" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="36">
   <si>
     <t>Model</t>
   </si>
@@ -132,12 +131,15 @@
   </si>
   <si>
     <t>CompanyController</t>
+  </si>
+  <si>
+    <t>DropDown Select2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -474,14 +476,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,14 +567,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51677852-9C0A-46D4-AF5E-E7CE9FA057EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,14 +688,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA56E62B-C6FA-4AEB-BFB4-8659B5E2DC10}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -708,10 +710,11 @@
     <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -743,10 +746,13 @@
         <v>33</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>34</v>
       </c>
@@ -778,10 +784,13 @@
         <v>21</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -793,6 +802,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/QC Test.xlsx
+++ b/QC Test.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Sheikh Asad Quadir\ASP.NET CORE\Kayes Vai\HR2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\KAYESH\Source\Repos\IbneKayesh\Sieve.HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426BFD62-A3FB-4936-814F-E902366126BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="855" windowWidth="20730" windowHeight="11040" activeTab="2"/>
+    <workbookView xWindow="-20610" yWindow="855" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
-    <sheet name="Views" sheetId="2" r:id="rId2"/>
-    <sheet name="Controller" sheetId="3" r:id="rId3"/>
+    <sheet name="Controller" sheetId="3" r:id="rId2"/>
+    <sheet name="Views" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="41">
   <si>
     <t>Model</t>
   </si>
@@ -133,13 +134,28 @@
     <t>CompanyController</t>
   </si>
   <si>
-    <t>DropDown Select2</t>
+    <t>HR_DESIGNATIONS</t>
+  </si>
+  <si>
+    <t>DesignationController</t>
+  </si>
+  <si>
+    <t>Index Order By</t>
+  </si>
+  <si>
+    <t>DropDown Select2 and Width 100%</t>
+  </si>
+  <si>
+    <t>Designation</t>
+  </si>
+  <si>
+    <t>Index Page DisplayNameFor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -192,11 +208,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,19 +491,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
@@ -520,7 +535,7 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -551,14 +566,30 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -567,72 +598,73 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
-    <tabColor rgb="FF00B0F0"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>20</v>
+      <c r="A2" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>9</v>
@@ -644,13 +676,13 @@
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>9</v>
@@ -662,25 +694,49 @@
         <v>9</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -688,73 +744,80 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
-    <tabColor rgb="FFFF0000"/>
+    <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="N1" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>34</v>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>9</v>
@@ -769,40 +832,76 @@
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/QC Test.xlsx
+++ b/QC Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\KAYESH\Source\Repos\IbneKayesh\Sieve.HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426BFD62-A3FB-4936-814F-E902366126BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80F2402-7699-406E-B337-615D0C2D1D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="855" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8220" yWindow="3045" windowWidth="20460" windowHeight="10770" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="44">
   <si>
     <t>Model</t>
   </si>
@@ -150,6 +150,15 @@
   </si>
   <si>
     <t>Index Page DisplayNameFor</t>
+  </si>
+  <si>
+    <t>HR_DUTY_ROSTER</t>
+  </si>
+  <si>
+    <t>DutyRosterController</t>
+  </si>
+  <si>
+    <t>DutyRoster</t>
   </si>
 </sst>
 </file>
@@ -495,10 +504,10 @@
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,6 +600,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -602,10 +637,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,6 +773,44 @@
         <v>21</v>
       </c>
     </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -748,10 +821,10 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -903,6 +976,50 @@
         <v>21</v>
       </c>
     </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/QC Test.xlsx
+++ b/QC Test.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\KAYESH\Source\Repos\IbneKayesh\Sieve.HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Sheikh Asad Quadir\ASP.NET CORE\Kayes Vai\HR2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80F2402-7699-406E-B337-615D0C2D1D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8220" yWindow="3045" windowWidth="20460" windowHeight="10770" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8220" yWindow="3045" windowWidth="20460" windowHeight="10770"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="45">
   <si>
     <t>Model</t>
   </si>
@@ -159,12 +158,15 @@
   </si>
   <si>
     <t>DutyRoster</t>
+  </si>
+  <si>
+    <t>HR_SECTIONS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -500,14 +502,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,7 +561,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
@@ -623,6 +625,32 @@
         <v>9</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -633,7 +661,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -817,13 +845,13 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>

--- a/QC Test.xlsx
+++ b/QC Test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8220" yWindow="3045" windowWidth="20460" windowHeight="10770"/>
+    <workbookView xWindow="8220" yWindow="3045" windowWidth="20460" windowHeight="10770" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="46">
   <si>
     <t>Model</t>
   </si>
@@ -161,6 +161,9 @@
   </si>
   <si>
     <t>HR_SECTIONS</t>
+  </si>
+  <si>
+    <t>SectionController</t>
   </si>
 </sst>
 </file>
@@ -508,7 +511,7 @@
   </sheetPr>
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -665,10 +668,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -838,6 +841,26 @@
       <c r="L4" s="1" t="s">
         <v>21</v>
       </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/QC Test.xlsx
+++ b/QC Test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8220" yWindow="3045" windowWidth="20460" windowHeight="10770" activeTab="1"/>
+    <workbookView xWindow="8220" yWindow="3045" windowWidth="20460" windowHeight="10770"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="47">
   <si>
     <t>Model</t>
   </si>
@@ -164,6 +164,9 @@
   </si>
   <si>
     <t>SectionController</t>
+  </si>
+  <si>
+    <t>Section</t>
   </si>
 </sst>
 </file>
@@ -511,8 +514,8 @@
   </sheetPr>
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,8 +673,8 @@
   </sheetPr>
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -852,15 +855,33 @@
       <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -872,10 +893,10 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1071,6 +1092,50 @@
         <v>21</v>
       </c>
     </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/QC Test.xlsx
+++ b/QC Test.xlsx
@@ -515,7 +515,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/QC Test.xlsx
+++ b/QC Test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8220" yWindow="3045" windowWidth="20460" windowHeight="10770"/>
+    <workbookView xWindow="8220" yWindow="3045" windowWidth="20460" windowHeight="10770" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="95">
   <si>
     <t>Model</t>
   </si>
@@ -167,6 +167,150 @@
   </si>
   <si>
     <t>Section</t>
+  </si>
+  <si>
+    <t>HR_ATTENDANCE_SHEET</t>
+  </si>
+  <si>
+    <t>HR_DEPARTMENT</t>
+  </si>
+  <si>
+    <t>HR_EDU_TYPE</t>
+  </si>
+  <si>
+    <t>HR_EMP_DETAIL</t>
+  </si>
+  <si>
+    <t>HR_EMP_EDU</t>
+  </si>
+  <si>
+    <t>HR_EMP_JOB</t>
+  </si>
+  <si>
+    <t>HR_EMP_LEAVE_APPS</t>
+  </si>
+  <si>
+    <t>HR_EMP_LEAVE_BALANCE</t>
+  </si>
+  <si>
+    <t>HR_EMP_PAYSLIP</t>
+  </si>
+  <si>
+    <t>HR_EMP_PAYSLIP_DETAIL</t>
+  </si>
+  <si>
+    <t>HR_EMP_REF</t>
+  </si>
+  <si>
+    <t>HR_EMP_ROSTER</t>
+  </si>
+  <si>
+    <t>HR_EMP_SALARY</t>
+  </si>
+  <si>
+    <t>HR_HOLIDAY_CALENDER</t>
+  </si>
+  <si>
+    <t>HR_LEAVE_TYPE</t>
+  </si>
+  <si>
+    <t>HR_SALARY_TYPE</t>
+  </si>
+  <si>
+    <t>AttendanceSheetController</t>
+  </si>
+  <si>
+    <t>DepartmentController</t>
+  </si>
+  <si>
+    <t>EduTypeController</t>
+  </si>
+  <si>
+    <t>EmpDetailController</t>
+  </si>
+  <si>
+    <t>EmpEducationController</t>
+  </si>
+  <si>
+    <t>EmpJobController</t>
+  </si>
+  <si>
+    <t>EmpLeaveAppController</t>
+  </si>
+  <si>
+    <t>EmpLeaveBalanceController</t>
+  </si>
+  <si>
+    <t>EmpPaySlipController</t>
+  </si>
+  <si>
+    <t>EmpPaySlipDetailController</t>
+  </si>
+  <si>
+    <t>EmpRefController</t>
+  </si>
+  <si>
+    <t>EmpRosterController</t>
+  </si>
+  <si>
+    <t>EmpSalaryController</t>
+  </si>
+  <si>
+    <t>HolidayCalenderController</t>
+  </si>
+  <si>
+    <t>LeaveTypeController</t>
+  </si>
+  <si>
+    <t>SalaryTypeController</t>
+  </si>
+  <si>
+    <t>AttendanceSheet</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>EduType</t>
+  </si>
+  <si>
+    <t>EmpDetail</t>
+  </si>
+  <si>
+    <t>EmpEducation</t>
+  </si>
+  <si>
+    <t>EmpJob</t>
+  </si>
+  <si>
+    <t>EmpLeaveApp</t>
+  </si>
+  <si>
+    <t>EmpLeaveBalance</t>
+  </si>
+  <si>
+    <t>EmpPaySlip</t>
+  </si>
+  <si>
+    <t>EmpPaySlipDetail</t>
+  </si>
+  <si>
+    <t>EmpRef</t>
+  </si>
+  <si>
+    <t>EmpRoster</t>
+  </si>
+  <si>
+    <t>EmpSalary</t>
+  </si>
+  <si>
+    <t>HolidayCalender</t>
+  </si>
+  <si>
+    <t>LeaveType</t>
+  </si>
+  <si>
+    <t>SalaryType</t>
   </si>
 </sst>
 </file>
@@ -225,10 +369,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -512,15 +657,15 @@
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
@@ -557,106 +702,310 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="1" t="s">
+      <c r="B21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -671,15 +1020,15 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" customWidth="1"/>
     <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
@@ -732,159 +1081,426 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="1" t="s">
+      <c r="B21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" s="3" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -893,18 +1509,18 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
@@ -961,178 +1577,466 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N5" s="1" t="s">
+      <c r="B21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N21" s="1" t="s">
         <v>21</v>
       </c>
     </row>

--- a/QC Test.xlsx
+++ b/QC Test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8220" yWindow="3045" windowWidth="20460" windowHeight="10770" activeTab="1"/>
+    <workbookView xWindow="8220" yWindow="3045" windowWidth="20460" windowHeight="10770"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="95">
   <si>
     <t>Model</t>
   </si>
@@ -659,8 +659,8 @@
   </sheetPr>
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -825,7 +825,9 @@
       <c r="C8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="E8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1022,8 +1024,8 @@
   </sheetPr>
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1261,12 +1263,24 @@
       <c r="F8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -1512,7 +1526,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1766,19 +1780,45 @@
       <c r="A8" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">

--- a/QC Test.xlsx
+++ b/QC Test.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="95">
   <si>
     <t>Model</t>
   </si>
@@ -660,7 +660,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -845,12 +845,24 @@
       <c r="A9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">

--- a/QC Test.xlsx
+++ b/QC Test.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="95">
   <si>
     <t>Model</t>
   </si>
@@ -660,7 +660,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -852,7 +852,7 @@
         <v>9</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>21</v>
@@ -863,7 +863,9 @@
       <c r="G9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="3"/>
+      <c r="H9" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">

--- a/QC Test.xlsx
+++ b/QC Test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8220" yWindow="3045" windowWidth="20460" windowHeight="10770"/>
+    <workbookView xWindow="8220" yWindow="3045" windowWidth="20460" windowHeight="10770" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="95">
   <si>
     <t>Model</t>
   </si>
@@ -659,8 +659,8 @@
   </sheetPr>
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,13 +705,27 @@
       <c r="A2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1038,8 +1052,8 @@
   </sheetPr>
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1300,8 +1314,12 @@
       <c r="A9" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>

--- a/QC Test.xlsx
+++ b/QC Test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8220" yWindow="3045" windowWidth="20460" windowHeight="10770" activeTab="1"/>
+    <workbookView xWindow="8220" yWindow="3045" windowWidth="20460" windowHeight="10770" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="95">
   <si>
     <t>Model</t>
   </si>
@@ -660,7 +660,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1052,8 +1052,8 @@
   </sheetPr>
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1114,17 +1114,39 @@
       <c r="A2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1557,8 +1579,8 @@
   </sheetPr>
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1626,10 +1648,18 @@
       <c r="A2" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
